--- a/cipher.xlsx
+++ b/cipher.xlsx
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -1065,23 +1065,473 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4*8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Den</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Шифр простой перестановки</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>650127843</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gigi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6*3 210</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Без добавления нулей</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Riga</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5*6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>oilhm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>khjmmk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1*5 13240</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fwpor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>540123</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pena</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9*4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sfuli</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>673540128</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ofeipq</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7*6 302415</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>vnbs</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1*5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>puncjv</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8*7 5041236</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ktunw</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>yirx</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1*5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>jnfwur</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1*7 3402165</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xfsxc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>xtntrz</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8*2 01</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vzgy</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3*5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>rxjho</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>284763510</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>С добавлением нулей</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cipher.xlsx
+++ b/cipher.xlsx
@@ -39,6 +39,28 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -47,6 +69,14 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -54,8 +84,31 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -68,17 +121,18 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,61 +147,7 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -162,17 +162,17 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,187 +183,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,20 +379,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,33 +466,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -498,127 +498,127 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,16 +1015,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="16.3333333333333" customWidth="1" min="4" max="4"/>
+    <col width="20.3333333333333" customWidth="1" min="2" max="2"/>
+    <col width="25.6666666666667" customWidth="1" min="4" max="4"/>
     <col width="14.5555555555556" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -1065,23 +1066,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Шифр Rail Fence</t>
+          <t>Шифр простой перестановки</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4*8</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>С добавлением нулей</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1532,6 +1531,183 @@
       </c>
       <c r="E20" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Света</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Der</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Шифр простой перестановки</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20651473</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rita</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6*4 0312</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Yun</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шифр вертикальной перестановки</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4*8 40275136</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hatiko</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3*8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hatoko</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3*8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gtyu</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3*9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cipher.xlsx
+++ b/cipher.xlsx
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Шифр вертикальной перестановки</t>
+          <t>Шифр Rail Fence</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6*4 0312</t>
+          <t>3*8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1604,8 +1604,10 @@
           <t>Без добавления нулей</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1707,6 +1709,56 @@
         </is>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oleg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3*8</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ештф</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Шифр Rail Fence</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3*8</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Без добавления нулей</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
     </row>
